--- a/Pace_Scheme_Creation_Template.xlsx
+++ b/Pace_Scheme_Creation_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppTetsing\offererr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppTetsing\distributor err\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CBEB1B-084D-4042-8652-9685A04DB321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB9AAE-9C3D-480D-A960-9A8C486F6157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="354">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1078,9 +1078,6 @@
     <t>Multiple</t>
   </si>
   <si>
-    <t>Reseller</t>
-  </si>
-  <si>
     <t>rmb_New Logo IaaS_Test_EMEA_2401</t>
   </si>
   <si>
@@ -1102,7 +1099,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>FOCUS VAN</t>
+    <t>Distributor</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -1608,31 +1605,31 @@
         <v>345</v>
       </c>
       <c r="F2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" t="s">
         <v>346</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" t="s">
         <v>347</v>
-      </c>
-      <c r="H2" t="s">
-        <v>347</v>
-      </c>
-      <c r="I2" t="s">
-        <v>348</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M2" t="s">
         <v>349</v>
       </c>
-      <c r="L2" t="s">
-        <v>348</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>350</v>
-      </c>
-      <c r="N2" t="s">
-        <v>351</v>
       </c>
       <c r="O2" t="s">
         <v>344</v>
@@ -1662,22 +1659,19 @@
         <v>0</v>
       </c>
       <c r="Z2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA2" t="s">
         <v>352</v>
       </c>
-      <c r="AA2" t="s">
-        <v>353</v>
-      </c>
       <c r="AB2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AC2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AD2" t="s">
         <v>339</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/Pace_Scheme_Creation_Template.xlsx
+++ b/Pace_Scheme_Creation_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppTetsing\distributor err\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppTetsing\offererr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB9AAE-9C3D-480D-A960-9A8C486F6157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CBEB1B-084D-4042-8652-9685A04DB321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="355">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1078,6 +1078,9 @@
     <t>Multiple</t>
   </si>
   <si>
+    <t>Reseller</t>
+  </si>
+  <si>
     <t>rmb_New Logo IaaS_Test_EMEA_2401</t>
   </si>
   <si>
@@ -1099,7 +1102,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Distributor</t>
+    <t>FOCUS VAN</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -1605,31 +1608,31 @@
         <v>345</v>
       </c>
       <c r="F2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" t="s">
         <v>348</v>
       </c>
-      <c r="L2" t="s">
-        <v>347</v>
-      </c>
       <c r="M2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O2" t="s">
         <v>344</v>
@@ -1659,19 +1662,22 @@
         <v>0</v>
       </c>
       <c r="Z2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA2" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB2" t="s">
         <v>352</v>
       </c>
-      <c r="AB2" t="s">
-        <v>351</v>
-      </c>
       <c r="AC2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AD2" t="s">
         <v>339</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
